--- a/INTLINE/data/578/BOT/International Reserves.XLSX
+++ b/INTLINE/data/578/BOT/International Reserves.XLSX
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Monthly" sheetId="1" r:id="Rcf18bd0f66894ec8"/>
-    <sheet name="Monthly (2)" sheetId="2" r:id="R3d0c7a48af8a4cb4"/>
-    <sheet name="Yearly" sheetId="3" r:id="R00840eaf6d4948f5"/>
+    <sheet name="Monthly" sheetId="1" r:id="Rf1889ece2c0c497a"/>
+    <sheet name="Monthly (2)" sheetId="2" r:id="Re07282a107ae439a"/>
+    <sheet name="Yearly" sheetId="3" r:id="R1094da8fd6144df5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
   <si>
     <t>Bank of Thailand</t>
   </si>
@@ -1187,6 +1187,9 @@
   </si>
   <si>
     <t xml:space="preserve">APR 2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAY 2022 </t>
   </si>
   <si>
     <t xml:space="preserve">1976 </t>
@@ -18964,7 +18967,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CV31"/>
+  <dimension ref="A1:CW31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" state="frozen" activePane="bottomRight"/>
@@ -19075,6 +19078,7 @@
     <col min="98" max="98" width="10.3851667131696" customWidth="1"/>
     <col min="99" max="99" width="10.3851667131696" customWidth="1"/>
     <col min="100" max="100" width="10.3851667131696" customWidth="1"/>
+    <col min="101" max="101" width="10.3851667131696" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19180,6 +19184,7 @@
       <c r="CT1" s="4"/>
       <c r="CU1" s="4"/>
       <c r="CV1" s="4"/>
+      <c r="CW1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
@@ -19284,6 +19289,7 @@
       <c r="CT2" s="4"/>
       <c r="CU2" s="4"/>
       <c r="CV2" s="4"/>
+      <c r="CW2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -19388,6 +19394,7 @@
       <c r="CT3" s="4"/>
       <c r="CU3" s="4"/>
       <c r="CV3" s="4"/>
+      <c r="CW3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
@@ -19492,6 +19499,7 @@
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
       <c r="CV4" s="4"/>
+      <c r="CW4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
@@ -19596,6 +19604,7 @@
       <c r="CT5" s="4"/>
       <c r="CU5" s="4"/>
       <c r="CV5" s="4"/>
+      <c r="CW5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
@@ -19897,6 +19906,9 @@
       </c>
       <c r="CV6" s="5" t="s">
         <v>390</v>
+      </c>
+      <c r="CW6" s="5" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="7">
@@ -20200,6 +20212,9 @@
       <c r="CV7" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="CW7" s="9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
@@ -20502,6 +20517,9 @@
       <c r="CV8" s="10">
         <v>14887.13</v>
       </c>
+      <c r="CW8" s="10">
+        <v>14420.43</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
@@ -20804,6 +20822,9 @@
       <c r="CV9" s="10">
         <v>5471.71</v>
       </c>
+      <c r="CW9" s="10">
+        <v>5501.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
@@ -21106,6 +21127,9 @@
       <c r="CV10" s="10">
         <v>1221.98</v>
       </c>
+      <c r="CW10" s="10">
+        <v>1228.39</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
@@ -21408,6 +21432,9 @@
       <c r="CV11" s="10">
         <v>206993.69</v>
       </c>
+      <c r="CW11" s="10">
+        <v>208847.97</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
@@ -21710,6 +21737,9 @@
       <c r="CV12" s="10">
         <v>228574.51</v>
       </c>
+      <c r="CW12" s="10">
+        <v>229997.87</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
@@ -22012,6 +22042,9 @@
       <c r="CV13" s="10">
         <v>32065</v>
       </c>
+      <c r="CW13" s="10">
+        <v>30005</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
@@ -22314,6 +22347,9 @@
       <c r="CV14" s="10">
         <v>260639.51</v>
       </c>
+      <c r="CW14" s="10">
+        <v>260002.87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
@@ -22616,6 +22652,9 @@
       <c r="CV15" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="CW15" s="9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
@@ -22918,6 +22957,9 @@
       <c r="CV16" s="10">
         <v>511194.42</v>
       </c>
+      <c r="CW16" s="10">
+        <v>493020.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
@@ -23220,6 +23262,9 @@
       <c r="CV17" s="10">
         <v>187887.44</v>
       </c>
+      <c r="CW17" s="10">
+        <v>188076.41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
@@ -23522,6 +23567,9 @@
       <c r="CV18" s="10">
         <v>41960.49</v>
       </c>
+      <c r="CW18" s="10">
+        <v>41997.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
@@ -23824,6 +23872,9 @@
       <c r="CV19" s="10">
         <v>7107749.33</v>
       </c>
+      <c r="CW19" s="10">
+        <v>7140303.29</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
@@ -24126,6 +24177,9 @@
       <c r="CV20" s="10">
         <v>7848791.68</v>
       </c>
+      <c r="CW20" s="10">
+        <v>7863397.01</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
@@ -24428,6 +24482,9 @@
       <c r="CV21" s="10">
         <v>1101047.97</v>
       </c>
+      <c r="CW21" s="10">
+        <v>1025840.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
@@ -24730,6 +24787,9 @@
       <c r="CV22" s="10">
         <v>8949839.65</v>
       </c>
+      <c r="CW22" s="10">
+        <v>8889237.96</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
@@ -25031,6 +25091,9 @@
       </c>
       <c r="CV23" s="13">
         <v>34.338</v>
+      </c>
+      <c r="CW23" s="13">
+        <v>34.189</v>
       </c>
     </row>
     <row r="24">
@@ -25134,6 +25197,7 @@
       <c r="CT24" s="9"/>
       <c r="CU24" s="9"/>
       <c r="CV24" s="9"/>
+      <c r="CW24" s="9"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -25238,6 +25302,7 @@
       <c r="CT25" s="9"/>
       <c r="CU25" s="9"/>
       <c r="CV25" s="9"/>
+      <c r="CW25" s="9"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
@@ -25342,6 +25407,7 @@
       <c r="CT26" s="9"/>
       <c r="CU26" s="9"/>
       <c r="CV26" s="9"/>
+      <c r="CW26" s="9"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
@@ -25446,6 +25512,7 @@
       <c r="CT27" s="9"/>
       <c r="CU27" s="9"/>
       <c r="CV27" s="9"/>
+      <c r="CW27" s="9"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -25550,6 +25617,7 @@
       <c r="CT28" s="12"/>
       <c r="CU28" s="12"/>
       <c r="CV28" s="12"/>
+      <c r="CW28" s="12"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -25654,6 +25722,7 @@
       <c r="CT29" s="12"/>
       <c r="CU29" s="12"/>
       <c r="CV29" s="12"/>
+      <c r="CW29" s="12"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -25758,6 +25827,7 @@
       <c r="CT30" s="12"/>
       <c r="CU30" s="12"/>
       <c r="CV30" s="12"/>
+      <c r="CW30" s="12"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -25862,13 +25932,14 @@
       <c r="CT31" s="12"/>
       <c r="CU31" s="12"/>
       <c r="CV31" s="12"/>
+      <c r="CW31" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A28:CV28"/>
-    <mergeCell ref="A29:CV29"/>
-    <mergeCell ref="A30:CV30"/>
-    <mergeCell ref="A31:CV31"/>
+    <mergeCell ref="A28:CW28"/>
+    <mergeCell ref="A29:CW29"/>
+    <mergeCell ref="A30:CW30"/>
+    <mergeCell ref="A31:CW31"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
@@ -26205,142 +26276,142 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL6" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM6" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AR6" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AS6" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AT6" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7">
